--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED298C89-0E0B-4F56-A987-07A32A24659D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759147DD-57D4-DA44-9E79-004D6C21571B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Structs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +25,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6F3287C8-73B1-2F4F-8B6B-A750D98D9845}</author>
+    <author>tc={3F888413-14E7-8E4F-A261-5152E2DFC727}</author>
+    <author>tc={8313FEA5-459A-E94F-9C35-9D36DC3D767F}</author>
+    <author>tc={64DBBEEC-57D6-2949-86F5-B66D11D80715}</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{6F3287C8-73B1-2F4F-8B6B-A750D98D9845}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hex 0x, Octal 0, Binary 0b, 1_000_000</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{3F888413-14E7-8E4F-A261-5152E2DFC727}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Integer.MIN_VALUE, Integer.MAX_VALUE</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{8313FEA5-459A-E94F-9C35-9D36DC3D767F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Double.INFINITY , Double.NEGATIVE_INFINITY, Double.NaN</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="3" shapeId="0" xr:uid="{64DBBEEC-57D6-2949-86F5-B66D11D80715}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No Relation between true / false and 1/0</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -86,87 +130,21 @@
     <t>short</t>
   </si>
   <si>
-    <t>Hex</t>
-  </si>
-  <si>
-    <t>0x</t>
-  </si>
-  <si>
-    <t>Octal</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>0b</t>
-  </si>
-  <si>
-    <t>can add _ for num literals</t>
-  </si>
-  <si>
-    <t>1_000_000</t>
-  </si>
-  <si>
     <t>Storage (byte)</t>
   </si>
   <si>
     <t>long (100L)</t>
   </si>
   <si>
-    <t>int *</t>
-  </si>
-  <si>
     <t>float (3.14f)</t>
   </si>
   <si>
-    <t>double * (3.14D)</t>
-  </si>
-  <si>
-    <t>Double.INFINITY , Double.NEGATIVE_INFINITY, Double.NaN</t>
-  </si>
-  <si>
-    <t>Integer.MIN_VALUE, Integer.MAX_VALUE</t>
-  </si>
-  <si>
     <t>char (UTF-16）</t>
   </si>
   <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>true /false</t>
-  </si>
-  <si>
-    <t>No Relation between true / false and 1/0</t>
-  </si>
-  <si>
-    <t>Stack</t>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>ArrayList</t>
-  </si>
-  <si>
-    <t>LinkedStack</t>
-  </si>
-  <si>
-    <t>ArrayStack</t>
-  </si>
-  <si>
-    <t>ArrayQueue</t>
-  </si>
-  <si>
-    <t>LinkedQueue</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arithmetic Operations </t>
   </si>
   <si>
@@ -260,9 +238,6 @@
     <t>Loop:</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
     <t>for ()</t>
   </si>
   <si>
@@ -275,9 +250,6 @@
     <t>Construction:</t>
   </si>
   <si>
-    <t>numeric types filled with 0</t>
-  </si>
-  <si>
     <t>boolean filled with false</t>
   </si>
   <si>
@@ -296,9 +268,6 @@
     <t>Float</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>Long</t>
   </si>
   <si>
@@ -311,12 +280,6 @@
     <t>Char</t>
   </si>
   <si>
-    <t>Binary Tree</t>
-  </si>
-  <si>
-    <t>Binary Search Tree (left &lt; right)</t>
-  </si>
-  <si>
     <t>Classes organized into:</t>
   </si>
   <si>
@@ -360,19 +323,52 @@
   </si>
   <si>
     <t>javadoc</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>true | false</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double  (3.14D)</t>
+  </si>
+  <si>
+    <t>numeric types filled with 0: int[] array = new int[10];</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Declare an interface</t>
+  </si>
+  <si>
+    <t>Implementing an Interface</t>
+  </si>
+  <si>
+    <t>Converting to an Interface Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,11 +391,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,6 +418,325 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>148168</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1899366" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E86DFC-C2CC-A345-9DD0-DA18536739E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3058584" y="15007168"/>
+          <a:ext cx="1899366" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface IntSequence {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>boolean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hasNext();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>int next();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3358035" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F1DC91-1E30-0B4F-8B11-4009FC3D3CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302001" y="15790333"/>
+          <a:ext cx="3358035" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public class SquareSequence </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>implements</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> IntSequence {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        private int i;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        public boolean hasNext() { return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> true; }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public int next() { return (++i) * i; }</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6785F71-4DCE-7643-814E-11EFABAC68F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672417" y="17621250"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>624416</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2607189" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E497EFEA-60B4-2647-8003-A492F897F08E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3640666" y="16753416"/>
+          <a:ext cx="2607189" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IntSequence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> sqs = new SquareSequence();</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,297 +1000,282 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B5" dT="2019-03-08T16:05:10.15" personId="{00000000-0000-0000-0000-000000000000}" id="{6F3287C8-73B1-2F4F-8B6B-A750D98D9845}">
+    <text>Hex 0x, Octal 0, Binary 0b, 1_000_000</text>
+  </threadedComment>
+  <threadedComment ref="C5" dT="2019-03-08T15:57:52.38" personId="{00000000-0000-0000-0000-000000000000}" id="{3F888413-14E7-8E4F-A261-5152E2DFC727}">
+    <text>Integer.MIN_VALUE, Integer.MAX_VALUE</text>
+  </threadedComment>
+  <threadedComment ref="C8" dT="2019-03-08T15:58:22.25" personId="{00000000-0000-0000-0000-000000000000}" id="{8313FEA5-459A-E94F-9C35-9D36DC3D767F}">
+    <text>Double.INFINITY , Double.NEGATIVE_INFINITY, Double.NaN</text>
+  </threadedComment>
+  <threadedComment ref="D10" dT="2019-03-08T16:03:09.73" personId="{00000000-0000-0000-0000-000000000000}" id="{64DBBEEC-57D6-2949-86F5-B66D11D80715}">
+    <text>No Relation between true / false and 1/0</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -977,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1007,7 +1313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1023,209 +1329,166 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
         <v>70</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>76</v>
       </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="B78" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" t="s">
-        <v>110</v>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39490E13-B3FB-4A4A-BE04-274BECDEAE6B}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759147DD-57D4-DA44-9E79-004D6C21571B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EAB50-9B45-904A-ACB7-8965FDE28D3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="30760" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
+    <sheet name="Interface" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -350,13 +351,115 @@
   </si>
   <si>
     <t>Converting to an Interface Type</t>
+  </si>
+  <si>
+    <t>Casts and the  instanceof Operator</t>
+  </si>
+  <si>
+    <t>Extending Interfaces</t>
+  </si>
+  <si>
+    <t>Implementing multiple interface</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any variable in an interface is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>public static final</t>
+    </r>
+  </si>
+  <si>
+    <t>Three kinds of concrete methods in interface:</t>
+  </si>
+  <si>
+    <t>static method</t>
+  </si>
+  <si>
+    <t>default method</t>
+  </si>
+  <si>
+    <t>Resolving default method conflicts</t>
+  </si>
+  <si>
+    <t>if at least one interface provides implementation , the compiler report an error.</t>
+  </si>
+  <si>
+    <t>* if an interface and an superclass both provide a same method, only superclass method matters, the method from interface is ignored.</t>
+  </si>
+  <si>
+    <t>can be static or instance method, but not default which can be override. Private method can only be helper method for other methods in the interface.</t>
+  </si>
+  <si>
+    <t>private method</t>
+  </si>
+  <si>
+    <t>Examples of Interface</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>a block of code that can be passed around.</t>
+  </si>
+  <si>
+    <t>* When parameter types can be inferred</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>Functional Interfaces</t>
+  </si>
+  <si>
+    <r>
+      <t>an object of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> an interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a single abstract method.</t>
+    </r>
+  </si>
+  <si>
+    <t>Method References</t>
+  </si>
+  <si>
+    <t>Syntax:</t>
+  </si>
+  <si>
+    <t>Examples:</t>
+  </si>
+  <si>
+    <t>Constructor References</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,10 +468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,7 +531,7 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>148168</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1899366" cy="781240"/>
+    <xdr:ext cx="1825243" cy="781240"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -444,7 +546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3058584" y="15007168"/>
-          <a:ext cx="1899366" cy="781240"/>
+          <a:ext cx="1825243" cy="781240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -473,7 +575,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public interface IntSequence {</a:t>
+            <a:t>public interface ItSequence {</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100"/>
@@ -732,11 +834,2503 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3278590" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8301F9D9-866D-7F49-B53F-F94B4330DBEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3989917" y="17102667"/>
+          <a:ext cx="3278590" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>if (sequence </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>instanceof</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> SquareSequence) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        SquareSequence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> s = (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SquareSequence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>) sequence;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>656166</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2720296" cy="1297919"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D431722-1FB4-4E4A-BF12-2F7149D6CAF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672416" y="17801167"/>
+          <a:ext cx="2720296" cy="1297919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Closeable {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        void close;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Channel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>extends</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Closeable {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        boolean isOpen();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3776483" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98353D29-9A8B-E545-ADA8-437C0FE34C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3608917" y="19536833"/>
+          <a:ext cx="3776483" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public class FileSequence </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>implements</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> IntSequence, Closeable {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        ......</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790059" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C812362-9A7D-CF49-893F-1446DDD3042D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143249" y="21420667"/>
+          <a:ext cx="2790059" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface IntSequence {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> boolean hasNext()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> { return true; }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        int next();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3758401" cy="1642373"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647014A3-1594-FB4C-90CA-3D9AD3B04E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3185584" y="22510750"/>
+          <a:ext cx="3758401" cy="1642373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface Person</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> { default int getId() { return 0; } }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public interface Indentified { default int getId() { return 124; } }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public class Employee implements Person, Identified {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public int getId() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Identified</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>super</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.getId();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723902</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>122769</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1899366" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3180849-4F0D-9D43-AAAE-EE068E916E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549402" y="694269"/>
+          <a:ext cx="1899366" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface IntSequence {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>boolean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hasNext();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>int next();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>721785</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3358035" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EEFF3F-230E-D140-BA7B-6B898B7E714F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1547285" y="1816100"/>
+          <a:ext cx="3358035" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public class SquareSequence </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>implements</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> IntSequence {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        private int i;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        public boolean hasNext() { return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> true; }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public int next() { return (++i) * i; }</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82E2BEE-6900-8242-A960-9D98BC74316B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3678767" y="17621250"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>744361</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102305</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2607189" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D3B9CA-803C-0D4C-ADD1-C600D618E203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1569861" y="3150305"/>
+          <a:ext cx="2607189" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IntSequence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> sqs = new SquareSequence();</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>754945</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35278</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3278590" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D0AA74-1943-0B44-9894-8A0B6E7462D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1580445" y="3845278"/>
+          <a:ext cx="3278590" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>if (sequence </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>instanceof</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> SquareSequence) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        SquareSequence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> s = (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SquareSequence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>) sequence;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>757766</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2720296" cy="1297919"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72397EC-A60E-8046-A3C2-E87FB2F85CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1583266" y="4809067"/>
+          <a:ext cx="2720296" cy="1297919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Closeable {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        void close;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Channel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>extends</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Closeable {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        boolean isOpen();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>783167</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55033</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3776483" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753B0937-A264-EE4B-9C41-A7EABE18820B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1608667" y="6532033"/>
+          <a:ext cx="3776483" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public class FileSequence </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>implements</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> IntSequence, Closeable {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        ......</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16283</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790059" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DA63AC-0221-8248-A62B-0A3A26A89963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432538" y="9003975"/>
+          <a:ext cx="2790059" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface IntSequence {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> boolean hasNext()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> { return true; }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        int next();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>765257</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>90365</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3758401" cy="1642373"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067C2149-B11F-9146-98B2-5314F4AECF26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3256411" y="10250365"/>
+          <a:ext cx="3758401" cy="1642373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface Person</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> { default int getId() { return 0; } }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public interface Indentified { default int getId() { return 124; } }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public class Employee implements Person, Identified {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public int getId() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Identified</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>super</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.getId();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>185614</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2091726" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E290209-F1B7-D144-9AEC-2A9FB97EEDEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1602154" y="13080999"/>
+          <a:ext cx="2091726" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface Comparable&lt;T&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        int compareTo(T other);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2159181" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A23B39E-F78E-4F40-A9EF-703493264D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1602154" y="13823462"/>
+          <a:ext cx="2159181" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> interface Comparator&lt;T&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        int compare(T first, T second);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>146537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1728294" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687B866E-4ADA-D049-A018-9B8247A1048C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611923" y="14604999"/>
+          <a:ext cx="1728294" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> interface Runnable {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        void run();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781539</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2173993" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49C94F3-767B-044A-AFA4-661DDA3EADC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611924" y="15386539"/>
+          <a:ext cx="2173993" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface EventHandler&lt;T&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        void handle(T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> event);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>166077</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3631828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF26E5B6-044E-B84C-88CE-39CF199AC71F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1592386" y="16773769"/>
+          <a:ext cx="3631828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(String first, String second) -&gt; first.length()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - second.length();</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>166076</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2702406" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA6A40D-E2EF-AB4F-AEBF-7FCA72DBDC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611923" y="17164538"/>
+          <a:ext cx="2702406" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(String first,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> String second</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>) -&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        int diff</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = first.length() - second.length();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        if (diff &lt; 0) return -1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        else if (diff &gt; 0) return 1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        else return 0;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752230</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4552657" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A798E0CD-75FC-1E40-8562-3083675EBF5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1582615" y="18542000"/>
+          <a:ext cx="4552657" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Comparator&lt;String&gt; comp = (first, second) -&gt; first.length() - second.length();</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>185616</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4034118" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D97CDCC-0DC0-B646-9FCF-5B53BA8FA848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611923" y="19333308"/>
+          <a:ext cx="4034118" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Arrays.sort(words, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(first, second) -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> first.length() - second.length()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>* the second param is an instance of Comparator</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>791308</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>166077</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2987036" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2F7216-AD07-FF4C-AD98-C097CA131B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1621693" y="19899923"/>
+          <a:ext cx="2987036" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface Predicate&lt;T&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        boolean test(T t);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Additional default and static methods</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>list.removeIf(e -&gt; e == null);  // ArrayList instance</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>185616</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4034118" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D2B545-1199-B240-A2CC-78DA98DA8114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611923" y="19333308"/>
+          <a:ext cx="4034118" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Arrays.sort(words, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(first, second) -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> first.length() - second.length()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>* the second param is an instance of Comparator</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>791306</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3404458" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012692E8-2B6B-274E-BD49-57ECCC2FA5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1621691" y="21101539"/>
+          <a:ext cx="3404458" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Arrays.sort(strings, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(x, y) -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  x.compareToIgnoreCase(y)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>same</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> as:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Arrays.sort(strings, String::compareToIgnoreCase);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>664307</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39711B1D-0069-DF4C-94AC-69D254A29840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1494692" y="21052692"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1856149" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F63F396-8876-114C-A729-0A2AEB640CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1602154" y="21834230"/>
+          <a:ext cx="1856149" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>list.removeIf(e -&gt; e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> == null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>same as:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>list.removeIf(Objects::isNull);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>185615</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2396938" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100DC0CA-6306-D641-A681-74CB758D7B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1602154" y="22654846"/>
+          <a:ext cx="2396938" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>list.forEach(x -&gt; System.out.println(x));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>same</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> as</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>list.forEach(System.out::println);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1560684" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647CC252-B6A0-6B44-93D7-672E5F675EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1719385" y="21062462"/>
+          <a:ext cx="1560684" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Class::instanceMethod</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Class::staticMethod</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>object::instance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Method</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,13 +3613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1034,12 +3628,12 @@
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -1083,7 +3677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +3688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>87</v>
       </c>
@@ -1116,7 +3710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +3719,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1136,7 +3730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +3741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +3752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +3760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1174,7 +3768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1182,7 +3776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +3784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1198,7 +3792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1206,7 +3800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +3808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -1222,7 +3816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -1230,7 +3824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" t="s">
         <v>40</v>
       </c>
@@ -1238,7 +3832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -1246,7 +3840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1254,7 +3848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1262,7 +3856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1270,12 +3864,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="B31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +3888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +3896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +3907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +3915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1329,12 +3923,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="B45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1342,17 +3936,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="B48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="B49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1360,27 +3954,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="B53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="B55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1388,17 +3982,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="C59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="C60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -1406,17 +4000,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="B64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1424,71 +4018,207 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="B68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="B69" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="B70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="B71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="B72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="B74" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="B75" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
+</oddHeader>
+  </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AAC122-52FC-8446-AF5E-86EF49D97F91}">
+  <dimension ref="A3:E125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716EAB50-9B45-904A-ACB7-8965FDE28D3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A20663-0A92-B944-ACC5-494CEABA9241}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="30760" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="30760" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
-    <sheet name="Interface" sheetId="2" r:id="rId2"/>
+    <sheet name="Interface &amp; Lambda" sheetId="2" r:id="rId2"/>
+    <sheet name="Inheritance &amp; Reflection" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -454,12 +455,647 @@
   <si>
     <t>Constructor References</t>
   </si>
+  <si>
+    <t>Implementing Deferred Execution</t>
+  </si>
+  <si>
+    <t>Examples of Functional Interface:</t>
+  </si>
+  <si>
+    <t>Runnable</t>
+  </si>
+  <si>
+    <t>Supplier&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Consumer&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>BiConsumer&lt;T, U&gt;</t>
+  </si>
+  <si>
+    <t>Function&lt;T, R&gt;</t>
+  </si>
+  <si>
+    <t>BiFunction&lt;T, U, R&gt;</t>
+  </si>
+  <si>
+    <t>Param types</t>
+  </si>
+  <si>
+    <t>Return Types</t>
+  </si>
+  <si>
+    <t>Abs method</t>
+  </si>
+  <si>
+    <t>Other method</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>andThen</t>
+  </si>
+  <si>
+    <t>UnaryOperator&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>BinaryOperator&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Predicate&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>BiPredicate&lt;T, U&gt;</t>
+  </si>
+  <si>
+    <t>T, U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void </t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>compose, andThen, identity</t>
+  </si>
+  <si>
+    <t>T, T</t>
+  </si>
+  <si>
+    <t>andThen, maxBy, minBy</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>and, or, negate, isEqual</t>
+  </si>
+  <si>
+    <t>and, or, negate</t>
+  </si>
+  <si>
+    <t>Functional Interface for Primitive Types:</t>
+  </si>
+  <si>
+    <t>BooleanSupplier</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supplier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consumer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">p, q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is int, long, double, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">P, Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is Int, Ling, Double</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consumer&lt;T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Function&lt;T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Function&lt;T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BiFunction&lt;T, U&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UnaryOperator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BinaryOperator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Predicate</t>
+    </r>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>p, p</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>getAsBoolean</t>
+  </si>
+  <si>
+    <r>
+      <t>getAs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>applyAs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>applyAs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementing own functional interface:</t>
+  </si>
+  <si>
+    <t>A block of code</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Values for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>free variables</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- variables that are not parameters and not defined inside the code; local variables that are effectively final, never modifed.</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>* same rule applies to variables captured by local classes</t>
+  </si>
+  <si>
+    <t>Higher-Order Functions</t>
+  </si>
+  <si>
+    <t>Functions that process and return functions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Local</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Anonymous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Classes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lambda for functional interface, local class for other interfaces (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>two or more methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Extending a Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">override method 可以改变return type </t>
+  </si>
+  <si>
+    <t>Superclass Assignments</t>
+  </si>
+  <si>
+    <t>Anonymous Subclass</t>
+  </si>
+  <si>
+    <r>
+      <t>比较新的特性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>double brace initilization</t>
+    </r>
+  </si>
+  <si>
+    <t>java.lang.Object</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>String toString()</t>
+  </si>
+  <si>
+    <t>boolean equals(Object other)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>obj.equals(other)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, consider the null-safe </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Objects.equals(obj, other)</t>
+    </r>
+  </si>
+  <si>
+    <t>int hashCode()</t>
+  </si>
+  <si>
+    <t>Equal objects must have the same hash code.</t>
+  </si>
+  <si>
+    <t>Class&lt;?&gt; getClass()</t>
+  </si>
+  <si>
+    <t>protected Object clone()</t>
+  </si>
+  <si>
+    <t>protected void finalize()</t>
+  </si>
+  <si>
+    <t>By default, the copy is shallow</t>
+  </si>
+  <si>
+    <t>when this object is reclaimed by the GC, don't override it.</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>notifyAll</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +1104,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
@@ -493,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -505,6 +1159,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +1187,7 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>148168</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1825243" cy="781240"/>
+    <xdr:ext cx="184731" cy="264431"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -546,7 +1202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3058584" y="15007168"/>
-          <a:ext cx="1825243" cy="781240"/>
+          <a:ext cx="184731" cy="264431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,141 +1229,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public interface ItSequence {</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>boolean</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> hasNext();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>int next();</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3358035" cy="953466"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F1DC91-1E30-0B4F-8B11-4009FC3D3CB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3302001" y="15790333"/>
-          <a:ext cx="3358035" cy="953466"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public class SquareSequence </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>implements</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> IntSequence {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>        private int i;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>        public boolean hasNext() { return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> true; }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>        public int next() { return (++i) * i; }</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -762,584 +1284,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>624416</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2607189" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E497EFEA-60B4-2647-8003-A492F897F08E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3640666" y="16753416"/>
-          <a:ext cx="2607189" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IntSequence</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> sqs = new SquareSequence();</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3278590" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8301F9D9-866D-7F49-B53F-F94B4330DBEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3989917" y="17102667"/>
-          <a:ext cx="3278590" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>if (sequence </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>instanceof</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> SquareSequence) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>        SquareSequence</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> s = (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SquareSequence</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>) sequence;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>656166</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2720296" cy="1297919"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D431722-1FB4-4E4A-BF12-2F7149D6CAF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3672416" y="17801167"/>
-          <a:ext cx="2720296" cy="1297919"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public interface</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Closeable {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>        void close;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public interface</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Channel </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>extends</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Closeable {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>        boolean isOpen();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3776483" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98353D29-9A8B-E545-ADA8-437C0FE34C95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3608917" y="19536833"/>
-          <a:ext cx="3776483" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public class FileSequence </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>implements</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> IntSequence, Closeable {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>        ......</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2790059" cy="781240"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C812362-9A7D-CF49-893F-1446DDD3042D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143249" y="21420667"/>
-          <a:ext cx="2790059" cy="781240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public interface IntSequence {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>        default</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> boolean hasNext()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> { return true; }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>        int next();</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3758401" cy="1642373"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647014A3-1594-FB4C-90CA-3D9AD3B04E22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3185584" y="22510750"/>
-          <a:ext cx="3758401" cy="1642373"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>public interface Person</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> { default int getId() { return 0; } }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>public interface Indentified { default int getId() { return 124; } }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>public class Employee implements Person, Identified {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>        public int getId() {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>                return </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Identified</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>super</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>.getId();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>        }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>}</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2472,7 +2416,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>166077</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3631828" cy="264560"/>
@@ -2534,7 +2478,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781538</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>166076</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2702406" cy="1125693"/>
@@ -2635,7 +2579,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>752230</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>175846</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4552657" cy="264560"/>
@@ -2693,7 +2637,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781538</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>185616</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4034118" cy="436786"/>
@@ -2776,9 +2720,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>791308</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>166077</xdr:rowOff>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2987036" cy="953466"/>
     <xdr:sp macro="" textlink="">
@@ -2794,7 +2738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1621693" y="19899923"/>
+          <a:off x="1602154" y="19733846"/>
           <a:ext cx="2987036" cy="953466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2864,7 +2808,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781538</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>185616</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4034118" cy="436786"/>
@@ -2948,7 +2892,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>791306</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3404458" cy="609013"/>
@@ -3051,7 +2995,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>664307</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3106,7 +3050,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>771769</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1856149" cy="609013"/>
@@ -3184,7 +3128,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>771769</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>185615</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2396938" cy="609013"/>
@@ -3259,7 +3203,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>58616</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>156308</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1560684" cy="609013"/>
@@ -3325,6 +3269,1355 @@
             <a:t>Method</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1187697" cy="608628"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D590BB3-0333-3C4A-96FE-55ACD724BFD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611923" y="24178846"/>
+          <a:ext cx="1187697" cy="608628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>this::equals</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>same as</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x -&gt; this.equals(x)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781537</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4075090" cy="780727"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1A3324-BA82-4E4E-9BA6-B3081607B4A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611922" y="25185077"/>
+          <a:ext cx="4075090" cy="780727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Stream&lt;Employee&gt; stream = names.stream().map(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Employee::new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1) Object[] employees = stream.toArray();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2) Employee[] employees = stream.toArray(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Employee[]::new);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3537892" cy="1297022"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECFD27B-2665-2748-8C33-92952FE24C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1611923" y="26552769"/>
+          <a:ext cx="3537892" cy="1297022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> interface IntConsumer { void accept(int value); }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public static void repeat(int n, IntConsumer action) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        for (int i = 0; i &lt; n; i++) action.accept(i);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>repeat(10, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> -&gt; System.out.println("Countdown: " + (9 - i)));</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771767</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5602880" cy="3190104"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C49F1A-B0E5-C749-9CA4-E6C6D025D018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1602152" y="26836077"/>
+          <a:ext cx="5602880" cy="3190104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>@FunctionalInterface</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> interface PixelFunction {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        Color apply(int x, int y);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>BufferedImage createImage(int width, int height, PixelFunction f) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        BufferedImage image = new BufferedImage(width, height, BufferedImage.TYPE_INT_RGB);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        for (int x  = 0; x &lt; width; x++) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                for (int y = 0; y &lt; height; y++) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        Color color = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>f.apply(x, y);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        image.setRGB(x, y, Color.getRGB());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        return image;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>BufferedImage frenchFlag = createImage(150, 100, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                                                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(x, y) -&gt; x &lt; 50 ? Color.BLUE : x &lt; 100 ? Color.WHITE : Color.RED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>791308</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4107406" cy="1297022"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912023B8-31B9-3F42-967E-29B49528C535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2452077" y="39135538"/>
+          <a:ext cx="4107406" cy="1297022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1) return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> functions</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public static Comparator&lt;String&gt; compareInDirection(int direction) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        return (x, y)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> -&gt; direction * x.compareTo(y);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>// a descending</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> order</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Arrays.sort(friends, compareInDirection(-1));</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781539</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4211153" cy="1124923"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E0FDAA-AC0F-2A42-B7FD-9DB4EDCBFA0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2442308" y="40640000"/>
+          <a:ext cx="4211153" cy="1124923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>2) modifiy functions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public static Comparator&lt;String&gt; reverse(Comparator&lt;String&gt; comp) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        return (x, y) -&gt; comp.compare(y, x);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>reverse(String::compareToIgnoreCase);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4793235" cy="1985415"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDF7B63-DA6D-B64C-AE51-14D2682A40B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520462" y="42466847"/>
+          <a:ext cx="4793235" cy="1985415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Local</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> class</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>* not declared as public or private since it's never accessible outside the method</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>private static Random generator = new Random();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public static IntSequence randomInts(int low, int high) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>class</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> RandomSequence implements IntSequence {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public int next() { return low + generator.nextInt(hight - low + 1);  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public boolean hasNext() { return true; }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        return new RandomSequence();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4391267" cy="1469120"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4384AE8D-3DB9-A943-B00A-A3003D93BC56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432538" y="44704000"/>
+          <a:ext cx="4391267" cy="1469120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Anonymous</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Class * the className has been ignored. ✅</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public static IntSequence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> randomInts() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> IntSequence() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public int next() {return low + generator.nextInt(high - low + 1); }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public boolean hasNext() { return true; }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>807359</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3206134" cy="1641475"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D41A0BB-8CEA-6148-9C55-955A95F1FAF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807359" y="589642"/>
+          <a:ext cx="3206134" cy="1641475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public class subclassName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>extends</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> superclassName {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        // constuctors       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public subclassName(int a, int b, int c) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>super</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(a, b);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                this.c = c;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>        added fields</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>        added or overriding methods</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2804101" cy="264431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A652D1-93B2-0D4C-B2CB-D349400E33AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1759857" y="2821214"/>
+          <a:ext cx="2804101" cy="264431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>superclass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> temp = new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>subclassName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807357</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3927935" cy="1124923"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1581CADC-CE93-9049-BA67-9F4C82FD6944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1632857" y="3447143"/>
+          <a:ext cx="3927935" cy="1124923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ArrayList&lt;String&gt; names = new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ArrayList&lt;String&gt;(100) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public void add (int index, String element) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                super.add();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                System.out.printf("Adding %s at %d\n", element, index);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>798285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3759106" cy="1367041"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D14604-154C-4D40-9345-4E5A2E35D773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2449285" y="4699000"/>
+          <a:ext cx="3759106" cy="1367041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ArrayList&lt;String&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> friends = new ArrayList&lt;&gt;();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>friends.add("Harry");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>friends.add("Sally");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>invite(friends);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>same as: 不推荐使用</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>invite(new ArrayList&lt;String&gt;() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> add("Harry"); add("Sally"); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>}}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3615,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4075,10 +5368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AAC122-52FC-8446-AF5E-86EF49D97F91}">
-  <dimension ref="A3:E125"/>
+  <dimension ref="A3:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView topLeftCell="A215" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4167,54 +5460,625 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="D89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="D90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="C95" t="s">
+    <row r="101" spans="2:3">
+      <c r="C101" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
+    <row r="114" spans="2:8">
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="E115" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" t="s">
+        <v>126</v>
+      </c>
+      <c r="G115" t="s">
+        <v>127</v>
+      </c>
+      <c r="H115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" t="s">
+        <v>130</v>
+      </c>
+      <c r="G116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" t="s">
+        <v>130</v>
+      </c>
+      <c r="G118" t="s">
+        <v>134</v>
+      </c>
+      <c r="H118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" t="s">
+        <v>140</v>
+      </c>
+      <c r="F119" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" t="s">
+        <v>134</v>
+      </c>
+      <c r="H119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" t="s">
+        <v>142</v>
+      </c>
+      <c r="G120" t="s">
+        <v>143</v>
+      </c>
+      <c r="H120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" t="s">
+        <v>140</v>
+      </c>
+      <c r="F121" t="s">
+        <v>142</v>
+      </c>
+      <c r="G121" t="s">
+        <v>143</v>
+      </c>
+      <c r="H121" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="C122" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" t="s">
+        <v>132</v>
+      </c>
+      <c r="G122" t="s">
+        <v>143</v>
+      </c>
+      <c r="H122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="C123" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" t="s">
+        <v>145</v>
+      </c>
+      <c r="F123" t="s">
+        <v>132</v>
+      </c>
+      <c r="G123" t="s">
+        <v>143</v>
+      </c>
+      <c r="H123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="C124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" t="s">
+        <v>132</v>
+      </c>
+      <c r="F124" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>147</v>
+      </c>
+      <c r="H124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="C125" t="s">
+        <v>139</v>
+      </c>
+      <c r="E125" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>147</v>
+      </c>
+      <c r="H125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="C130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>129</v>
+      </c>
+      <c r="F130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="C131" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" t="s">
+        <v>129</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="C132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F132" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="C133" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" t="s">
+        <v>130</v>
+      </c>
+      <c r="G133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="C134" t="s">
+        <v>156</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F134" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="C135" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="C136" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="C137" t="s">
+        <v>159</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="C138" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="C139" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="C140" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="6"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="C200" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="C217" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A6A18-FE19-524A-8986-35362C957A7C}">
+  <dimension ref="A3:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="C38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="C42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="C44" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A20663-0A92-B944-ACC5-494CEABA9241}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71637E8-3865-6F41-B07F-4BE6EF9570AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="30760" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26840" yWindow="1040" windowWidth="24280" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
     <sheet name="Interface &amp; Lambda" sheetId="2" r:id="rId2"/>
     <sheet name="Inheritance &amp; Reflection" sheetId="3" r:id="rId3"/>
+    <sheet name="Exceptions,Assertions&amp;Logging" sheetId="4" r:id="rId4"/>
+    <sheet name="I &amp; O" sheetId="5" r:id="rId5"/>
+    <sheet name="Concurrent" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="228">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1090,12 +1093,180 @@
   <si>
     <t>notifyAll</t>
   </si>
+  <si>
+    <t>Enumerations</t>
+  </si>
+  <si>
+    <t>Constructors, Methods, and Fields</t>
+  </si>
+  <si>
+    <t>Bodies of instances:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add methods for each </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>enum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instance, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but they have to override methods defined in the enumeration</t>
+    </r>
+  </si>
+  <si>
+    <t>Static Members</t>
+  </si>
+  <si>
+    <t>enumerated constants are constructed before the static members, so cannot refer any static mmbers in .</t>
+  </si>
+  <si>
+    <t>can be nested inside classes, then implicitly static, can't reference instance variables of the enclosing class</t>
+  </si>
+  <si>
+    <t>Switch on Enumeration</t>
+  </si>
+  <si>
+    <t>Runtime Type Information and Resources</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find out how the class was loaded, and load its associated data, called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Class</t>
+    </r>
+  </si>
+  <si>
+    <t>Methods of java.lang.Class&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>static Class&lt;?&gt; forName(String className)</t>
+  </si>
+  <si>
+    <t>// todo</t>
+  </si>
+  <si>
+    <t>Loading Resources</t>
+  </si>
+  <si>
+    <t>Class Loaders</t>
+  </si>
+  <si>
+    <t>responsbile for loading the bytes and turning  them into a class/interface in the virtual machine.</t>
+  </si>
+  <si>
+    <t>bootstrap class loader</t>
+  </si>
+  <si>
+    <t>platform class loader</t>
+  </si>
+  <si>
+    <t>system class loader</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System.getProperty("java.class.path");</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to find class path</t>
+    </r>
+  </si>
+  <si>
+    <t>The Context Class Loader</t>
+  </si>
+  <si>
+    <t>Service Loaders</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Input / Output Streams, Readers, and Writers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1296,22 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4617,6 +4804,1385 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>798286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3607847" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2219DD7-7C07-C943-BF54-6CD26305E47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623786" y="8917214"/>
+          <a:ext cx="3607847" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>enum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {SMALL, MEDIUM, LARGE, EXTRA_LARGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>};</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2502352" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE23D46D-1411-CD40-9EF8-7B24862C32D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1732643" y="9443357"/>
+          <a:ext cx="2502352" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Size notMySize = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Size.valueOf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>("SMALL");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Size[] allValues</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>= Size.values</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>for (Size s : Size.values()) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        System.out.println(s);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size.MEDIUM.ordinal() == 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>789214</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3949286" cy="2331279"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F19A460-B07A-E64B-B563-002EE6636E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2440214" y="11248572"/>
+          <a:ext cx="3949286" cy="2331279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> enum Size {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        SMALL("S"), MEDIUM("M"), LARGE("L"), EXTRA_LARGE("XL");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        private String abbreviation;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>// private constructor, access modifer omit, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        // for publc / protected  ==&gt; error</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        Size(String abbreviation) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                this.abbreviation = abbreviation;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public String getAbbreviation() {  return abbreviation;  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>4269</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3847913" cy="3090077"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69EA66BE-D13F-3B4E-B063-AAF43016AC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2616306" y="14571916"/>
+          <a:ext cx="3847913" cy="3090077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public enum Operation {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 其实这就是匿名类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        ADD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public int eval(int arg1, int arg2) (  return arg1 + arg2;  )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        SUBTRACT {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public int eval(int arg1, int arg2) (  return arg1 - arg2;  )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        MULTIPLY {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public int eval(int arg1, int arg2) { return arg1 * arg2;  )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        DIVIDE {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                public int eval(int arg1, int arg2) {  return arg1 / arg2;  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>abstract</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> int eval(int arg1, int arg2);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231588</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3708579" cy="4636910"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3B7747-D931-DA4E-8117-E8E6220B6EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2719294" y="18183412"/>
+          <a:ext cx="3708579" cy="4636910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public enum Modifier {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        PUBLIC, PRIVATE,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> PROTECTED, STATIC, FINAL, ABSTRACT;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        private </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>static</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> int maskBit = 1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        private int mask;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        Modifier () {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                mask = maskBit; // error</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                maskBit *= 2;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Remedy:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> enum Modifier {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        PUBLIC, PRIVATE, PROTECTED, STATIC, FINAL, ABSTRACT;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        private int mask;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>// 这个static</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>为每一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>enum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>instance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>都赋值了，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 要仔细看，理解代码内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>static</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                int maskBit = 1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                for (Modifier m : Modifier.values()) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        m.mask = maskBit;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        maskBit *= 2;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>194235</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3441711" cy="2329612"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640D00C0-921A-0C4D-AA2F-D8420D46E657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2681941" y="23106530"/>
+          <a:ext cx="3441711" cy="2329612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>enum Operation (  ADD,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> SUBTRACT, MULTIPLY, DIVIDE  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public static int eval (Operation op, int arg1, int arg2) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        int result = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        switch (op) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>// use </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ADD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> not </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Operation.ADD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>, cos the type is inferred.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>case ADD : result = arg1 + arg2;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                case SUBTRACT: result = arg1 - arg2; break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                case MULTIPLY: result = arg1 * arg2; break;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                case DIVIDE: result = arg1 / arg2; break;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        return result;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>776939</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2497735" cy="1813317"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2606E6-DDEA-6448-AB76-718AFC1A37F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2435410" y="26378647"/>
+          <a:ext cx="2497735" cy="1813317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Object</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> obj = ...;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Class&lt;?&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> cl = obj.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getClass()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>// find out class name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>System.out.println(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cl.getName()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>// get a Class object by String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>String className</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = "java.util.Scanner";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Class&lt;?&gt; cl = Class.forName(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>className</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>same as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Class&lt;?&gt; cl = java.util.Scanner.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>class</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4039696" cy="1297022"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022B7EC7-8D7A-A145-9DBE-4C59FD623882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420471" y="28321000"/>
+          <a:ext cx="4039696" cy="1297022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>String[].class.getName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>() returns "[Ljava.util.String"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>int[].class.getName() returns "[I"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>*should use getCanonicalName() to get name.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>it's </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>good</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> to use ==, cos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>JVM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>keep unique Class object for each type:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        obj.getClass() == Employee.class()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4319901" cy="436530"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB52ED36-A513-0B42-8544-FFFC2069BB1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2502647" y="30831117"/>
+          <a:ext cx="4319901" cy="436530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>InputStream stream = MyClass.class.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getResourceAsStream</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>("config.txt");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Scanner in = new Scanner(new);</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5370,7 +6936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AAC122-52FC-8446-AF5E-86EF49D97F91}">
   <dimension ref="A3:H217"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -5981,10 +7547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A6A18-FE19-524A-8986-35362C957A7C}">
-  <dimension ref="A3:F44"/>
+  <dimension ref="A3:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A163" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6081,8 +7647,182 @@
         <v>201</v>
       </c>
     </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="D93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="D118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="C134" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="C136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="C163" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="C164" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="D165" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="D166" t="s">
+        <v>220</v>
+      </c>
+      <c r="F166" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="D167" t="s">
+        <v>221</v>
+      </c>
+      <c r="F167" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="C169" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="C172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="C176" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD99AA1-AF1F-2E43-B19C-14B5DDF71331}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2908512-AA1C-514C-8D54-E05B0FF39250}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19BCAD-ED38-5145-BC98-32811AE5FD8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71637E8-3865-6F41-B07F-4BE6EF9570AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40962368-A966-C346-BFB5-8927F118992D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26840" yWindow="1040" windowWidth="24280" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="1200" windowWidth="24280" windowHeight="15540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Inheritance &amp; Reflection" sheetId="3" r:id="rId3"/>
     <sheet name="Exceptions,Assertions&amp;Logging" sheetId="4" r:id="rId4"/>
     <sheet name="I &amp; O" sheetId="5" r:id="rId5"/>
-    <sheet name="Concurrent" sheetId="6" r:id="rId6"/>
+    <sheet name="Concurrency2" sheetId="6" r:id="rId6"/>
+    <sheet name="Concurrency" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="234">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1260,6 +1261,72 @@
   </si>
   <si>
     <t>Input / Output Streams, Readers, and Writers</t>
+  </si>
+  <si>
+    <t>Concurrent Tasks</t>
+  </si>
+  <si>
+    <t>用于线程的functional interface</t>
+  </si>
+  <si>
+    <t>使用executor service来schedules and executes tasks</t>
+  </si>
+  <si>
+    <t>区分线程与进程</t>
+  </si>
+  <si>
+    <r>
+      <t>一个进程中可以有一个或者多个线程，多个线程共享线程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>堆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和方法区，各个线程由自己的程序计数器和栈区域</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>等待</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6184,6 +6251,703 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Scanner in = new Scanner(new);</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752929</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3483198" cy="625929"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285E0881-C48D-204E-917F-E9EAC16CA117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1578429" y="725714"/>
+          <a:ext cx="3483198" cy="625929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface Runnable {</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> void run(); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public interface Callable&lt;V&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {  V call() throws Exception;  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4181466" cy="1991314"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333428D0-1D13-3441-BDDF-7D0CB6CBF832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1923143" y="1859643"/>
+          <a:ext cx="4181466" cy="1991314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Runnable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>task = () -&gt; { ... }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ExecutorService executor = ... ;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>executor.execute(task);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>exe service有两种</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1) exec = Executors.newCachedThreadPool() // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>自动增加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>减少线程</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2) exec = Executors.newFixedThreadPool(nthreads); // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>固定线程数量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>*取得cpu核心数量,可以作用于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>int processors = Runtime.getRuntime().availableProcessors();</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>308429</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4789196" cy="2673937"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7E2597-0F7D-394F-A5DE-C7FCADB7E7C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5261429" y="1242786"/>
+          <a:ext cx="4789196" cy="2673937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>java.util.concurrent.FutureTask</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public class </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>ThreadTest {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public static void main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>(String[] args) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FutureTask</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>&lt;String&gt; futureTask = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>FutureTask&lt;&gt;(() -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"hello"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>; // Callable</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        new </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Thread(futureTask).start()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        try </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>            String result = futureTask.get()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>System.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>out</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>.println(result)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>} </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>catch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>(Exception e) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>            e.printStackTrace()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>    }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6474,8 +7238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7815,11 +8579,55 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19BCAD-ED38-5145-BC98-32811AE5FD8E}">
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404E9FCD-6313-0740-9A05-36B629EAE644}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40962368-A966-C346-BFB5-8927F118992D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B364E-291E-294F-AFB7-D28C8DF7F2F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1200" windowWidth="24280" windowHeight="15540" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="25620" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="256">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1327,6 +1327,112 @@
       </rPr>
       <t>等待</t>
     </r>
+  </si>
+  <si>
+    <t>共享资源：该资源可以被多个线程访问</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">在对共享资源进行写入的时候，存在线程安全的问题，需要进行适当的同步，java中 最常见的就是使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>synchronzied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 关键字</t>
+    </r>
+  </si>
+  <si>
+    <t>当线程操作共享变量时，先从主内存中复制共享变量到自己的工作内存，然后对工作内存里的变量进行操作，处理完后，将变量值更新到主内存。</t>
+  </si>
+  <si>
+    <t>在默认情况下线程B写入的共享变量对线程A不可见</t>
+  </si>
+  <si>
+    <t>synchronzied</t>
+  </si>
+  <si>
+    <t>原子性内置锁 （排他锁，当一个线程获取了这个锁之后，其他线程必须等待该线程释放锁后才能获取该锁）</t>
+  </si>
+  <si>
+    <t>线程的执行代码在进入synchronized代码块前会自动获取内部锁，此时其他线程访问该同步代码块时会被阻塞挂起，直到内部锁被释放(运行完毕，或者调用wait())或者抛出异常。</t>
+  </si>
+  <si>
+    <t>进入synchronized代码块，将代码块内使用到的变量从线程的工作内存中清楚，这样块内在使用共享变量时直接从主内存中获取。</t>
+  </si>
+  <si>
+    <t>退出代码块时，再讲块内的共享变量刷新给主内存</t>
+  </si>
+  <si>
+    <t>使用它会导致进程上下文切换并带来线程调度的开销</t>
+  </si>
+  <si>
+    <t>锁</t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <r>
+      <t>共享变量中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>内存可见性问题</t>
+    </r>
+  </si>
+  <si>
+    <t>弱形式的同步</t>
+  </si>
+  <si>
+    <t>确保对一个变量的更新对其他线程马上可见</t>
+  </si>
+  <si>
+    <t>当线程在写入valatile变量时，不会把值缓存在寄存器或者其他地方，而是会把值直接刷新回主内存。</t>
+  </si>
+  <si>
+    <r>
+      <t>保证可见性，但是不保证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>原子性</t>
+    </r>
+  </si>
+  <si>
+    <t>原子性</t>
+  </si>
+  <si>
+    <t>执行一系列操作时，要么全部执行，要么全部不执行，不存在只执行一部分的情况</t>
+  </si>
+  <si>
+    <t>保证原子性</t>
+  </si>
+  <si>
+    <t>AtomicLong</t>
+  </si>
+  <si>
+    <t>非阻塞CAS算法 Compare and Swap</t>
   </si>
 </sst>
 </file>
@@ -6263,9 +6369,224 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3300840" cy="1698157"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619FB77C-015C-AF48-9356-694ABDD07CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9688286" y="2830286"/>
+          <a:ext cx="3300840" cy="1698157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public  class ThreadSafeInteger {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>private int value;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> 保证可见性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        public </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>synchronized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> int get() {</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> return  value;  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 保证原子性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        public </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>synchronized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> void inc() { ++value; }</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>* 但是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>synchronized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是独占锁，大大降低了并发性。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>172357</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664A63DF-5BA7-B145-BC67-D5F5AB02D846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8427357" y="5451929"/>
+          <a:ext cx="184731" cy="264431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>752929</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>154214</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3483198" cy="625929"/>
@@ -6274,7 +6595,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285E0881-C48D-204E-917F-E9EAC16CA117}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAEA828-E031-8549-92A5-33CD368F5C76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6282,7 +6603,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1578429" y="725714"/>
+          <a:off x="1578429" y="2059214"/>
           <a:ext cx="3483198" cy="625929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6356,9 +6677,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>145143</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4181466" cy="1991314"/>
@@ -6367,7 +6688,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333428D0-1D13-3441-BDDF-7D0CB6CBF832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BA088B-BC7B-4649-AA1E-9FF99113FE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,7 +6696,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1923143" y="1859643"/>
+          <a:off x="1923143" y="3193143"/>
           <a:ext cx="4181466" cy="1991314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6494,18 +6815,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>308429</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4789196" cy="2673937"/>
+    <xdr:ext cx="466794" cy="334451"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7E2597-0F7D-394F-A5DE-C7FCADB7E7C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9529BAAE-2B7F-F447-93DC-7756C1E3765B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6513,8 +6834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5261429" y="1242786"/>
-          <a:ext cx="4789196" cy="2673937"/>
+          <a:off x="7010400" y="1498600"/>
+          <a:ext cx="466794" cy="334451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6551,401 +6872,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>import </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>java.util.concurrent.FutureTask</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public class </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>ThreadTest {</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public static void main</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>(String[] args) {</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>FutureTask</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>&lt;String&gt; futureTask = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>new </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>FutureTask&lt;&gt;(() -&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"hello"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>; // Callable</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        new </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Thread(futureTask).start()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        try </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>{</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>            String result = futureTask.get()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>System.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>out</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>.println(result)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>} </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>catch </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>(Exception e) {</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>            e.printStackTrace()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>}</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>    }</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>}</a:t>
+            <a:t>共享</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -8311,10 +8238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A6A18-FE19-524A-8986-35362C957A7C}">
-  <dimension ref="A3:F176"/>
+  <dimension ref="A3:F175"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8530,11 +8457,6 @@
     <row r="175" spans="2:6">
       <c r="B175" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6">
-      <c r="C176" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -8579,42 +8501,127 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19BCAD-ED38-5145-BC98-32811AE5FD8E}">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>230</v>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8625,12 +8632,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404E9FCD-6313-0740-9A05-36B629EAE644}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B364E-291E-294F-AFB7-D28C8DF7F2F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C45840-0E03-E14A-8DB2-42A2D3F954CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25620" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="25600" yWindow="2460" windowWidth="24360" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="265">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1433,6 +1433,33 @@
   </si>
   <si>
     <t>非阻塞CAS算法 Compare and Swap</t>
+  </si>
+  <si>
+    <t>伪共享</t>
+  </si>
+  <si>
+    <t>当多个线程同时修改缓存行里的多个变量是，同时只能有一个线程操作缓存行，相对于一个缓存行一个变量，这就是伪共享。</t>
+  </si>
+  <si>
+    <t>地址连续的多个变量有可能被放入一个缓存行中，例如数组</t>
+  </si>
+  <si>
+    <t>在单线程下修改一个缓存行中的多个变量，能充分利用局部性原则，加速程序的运行</t>
+  </si>
+  <si>
+    <t>在多线程下并发修改一个缓存行中的多个变量时会竞争缓存行，降低程序的性能</t>
+  </si>
+  <si>
+    <t>避免伪共享</t>
+  </si>
+  <si>
+    <t>锁的概述</t>
+  </si>
+  <si>
+    <t>乐观锁</t>
+  </si>
+  <si>
+    <t>悲观锁</t>
   </si>
 </sst>
 </file>
@@ -8240,7 +8267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A6A18-FE19-524A-8986-35362C957A7C}">
   <dimension ref="A3:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A139" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
@@ -8501,10 +8528,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19BCAD-ED38-5145-BC98-32811AE5FD8E}">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8622,6 +8649,51 @@
       </c>
       <c r="C31" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C45840-0E03-E14A-8DB2-42A2D3F954CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC484A2-DB58-914C-A7BF-7F4DA2BFABA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25600" yWindow="2460" windowWidth="24360" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30160" yWindow="2460" windowWidth="24360" windowHeight="15540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="I &amp; O" sheetId="5" r:id="rId5"/>
     <sheet name="Concurrency2" sheetId="6" r:id="rId6"/>
     <sheet name="Concurrency" sheetId="7" r:id="rId7"/>
+    <sheet name="Co" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="289">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1460,6 +1461,139 @@
   </si>
   <si>
     <t>悲观锁</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>java.lang.Thread</t>
+  </si>
+  <si>
+    <t>Thread(Runnable target)</t>
+  </si>
+  <si>
+    <t>void start()</t>
+  </si>
+  <si>
+    <t>void run()</t>
+  </si>
+  <si>
+    <t>void sleep(long miliis)</t>
+  </si>
+  <si>
+    <t>java.lang.Runnable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interrupting Threads: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> termination of a thread.</t>
+    </r>
+  </si>
+  <si>
+    <t>static, check the current thread, clear the interrupted status</t>
+  </si>
+  <si>
+    <t>instance, not change interrupted status</t>
+  </si>
+  <si>
+    <t>void interrupt()</t>
+  </si>
+  <si>
+    <t>static boolean interrupted()</t>
+  </si>
+  <si>
+    <t>boolean  isInterrupted()</t>
+  </si>
+  <si>
+    <t>static Thread currentThread()</t>
+  </si>
+  <si>
+    <t>Thread States</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Timed waiting</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create a thread with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operator,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new Thread(r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), the thread is not yet running</t>
+    </r>
+  </si>
+  <si>
+    <t>once invoke the start() method, it's up to computer to run the thread</t>
+  </si>
+  <si>
+    <t>temporarily inactive,  execute any code and consumes minimal resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as above </t>
   </si>
 </sst>
 </file>
@@ -6902,6 +7036,384 @@
             <a:t>共享</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4587090" cy="2917850"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604DAF5E-945E-E24D-AE99-39A7C0219F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071563" y="2627313"/>
+          <a:ext cx="4587090" cy="2917850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Runnable r = () -&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        try</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>check the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>interrpted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>status</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                while (!Thread.currentThread.isInterrupted() &amp;&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>more work to do</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>do more work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        catch (InterruptedException e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                // Thread was interrupted during sleep or wait</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        finally {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>cleanup, if required.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        // exiting the run method terminates the thread</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563563</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3712940" cy="3018262"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF156E95-E774-C145-9315-4E4BD3C542CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6342063" y="2524125"/>
+          <a:ext cx="3712940" cy="3018262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Runnable r = () -&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>        try</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                // with sleep | wait method, no need to check status </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                while (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>more work to do</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>                        do more work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        Thread.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sleep</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(delay);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        catch (IntertuptedException e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                // thread was interrupted during sleep</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        finally {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>clean up, if required</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        // exiting the runm method terminates the thread</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>};</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8530,7 +9042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19BCAD-ED38-5145-BC98-32811AE5FD8E}">
   <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -8707,7 +9219,7 @@
   <dimension ref="B3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8731,4 +9243,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E9D92-3EEB-F441-BF9E-67E50DBFC7C5}">
+  <dimension ref="A3:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="C40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC484A2-DB58-914C-A7BF-7F4DA2BFABA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7ACC0-1755-3142-AF5B-6B1551E22FA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="2460" windowWidth="24360" windowHeight="15540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="460" windowWidth="24280" windowHeight="15540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="321">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1594,6 +1594,150 @@
   </si>
   <si>
     <t xml:space="preserve">same as above </t>
+  </si>
+  <si>
+    <t>naturally | abruptly</t>
+  </si>
+  <si>
+    <t>void join()</t>
+  </si>
+  <si>
+    <t>void join(long millis)</t>
+  </si>
+  <si>
+    <t>Thread.State getState()</t>
+  </si>
+  <si>
+    <t>void stop()</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>void suspend()</t>
+  </si>
+  <si>
+    <t>void resum()</t>
+  </si>
+  <si>
+    <t>Thread Properties</t>
+  </si>
+  <si>
+    <t>Thread Priority 0 - 10</t>
+  </si>
+  <si>
+    <t>highly system dependent, ex. Oracle JVM will ginore thread priority at all</t>
+  </si>
+  <si>
+    <t>void setPriority(int newPriority)</t>
+  </si>
+  <si>
+    <t>static int MIN_PRIORITY = 1</t>
+  </si>
+  <si>
+    <t>static int NORM_PRIORITY = 5</t>
+  </si>
+  <si>
+    <t>static int MAX_PRIORITY = 10</t>
+  </si>
+  <si>
+    <t>static void yield()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">turn a thread into </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>daemon thread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>t.setDaemon(true)</t>
+    </r>
+  </si>
+  <si>
+    <t>A daemon is a thread that has no other role than to serve others, ex. Timer threads</t>
+  </si>
+  <si>
+    <t>When only daemon thread remain, the virtual machine exits.</t>
+  </si>
+  <si>
+    <t>A daemon thread should never access  a persistent resources such as a file or databases.</t>
+  </si>
+  <si>
+    <t>Recommend that do not use thread groups in your groups, there are better alternatives.</t>
+  </si>
+  <si>
+    <t>Synchronization</t>
+  </si>
+  <si>
+    <t>Race Condition Explained</t>
+  </si>
+  <si>
+    <t>Conditional Objects</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.locks.Lock</t>
+  </si>
+  <si>
+    <t>Condition newCondition()</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.locks.Condition</t>
+  </si>
+  <si>
+    <t>void await()</t>
+  </si>
+  <si>
+    <t>void signalAll()</t>
+  </si>
+  <si>
+    <t>void signal()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Keyword</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ever since version 1.0, every object has an </t>
   </si>
 </sst>
 </file>
@@ -7414,6 +7558,202 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>};</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3202672" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87223371-3691-E045-9062-23AA42BBEA5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1698625" y="12350751"/>
+          <a:ext cx="3202672" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>interface</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Thread.UncaughtExceptionHandler {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        void uncaughtException(Thread t, Throwable e);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134937</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4093236" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27BF425-177F-F74E-A763-8BD3A509BC98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1889125" y="14382750"/>
+          <a:ext cx="4093236" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>myLock.lock()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>; // a ReentrantLock object</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>try</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        critial section</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>finally {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        // make sure the lock is unlocked even if an exception is thrown</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>myLock.unlock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9247,10 +9587,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E9D92-3EEB-F441-BF9E-67E50DBFC7C5}">
-  <dimension ref="A3:D41"/>
+  <dimension ref="A3:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9378,6 +9718,173 @@
       <c r="C41" t="s">
         <v>284</v>
       </c>
+      <c r="D41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="C45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" t="s">
+        <v>293</v>
+      </c>
+      <c r="D47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="C49" t="s">
+        <v>296</v>
+      </c>
+      <c r="D49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="C55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="C56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="C57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="C58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="C59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="C63" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="D89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="D91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="D92" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="D93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7ACC0-1755-3142-AF5B-6B1551E22FA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B0BCB-58B2-B840-8BD6-C92F609C5937}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="460" windowWidth="24280" windowHeight="15540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="338">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1737,7 +1737,118 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ever since version 1.0, every object has an </t>
+    <t>ever since version 1.0, every object has an instrinsic lock</t>
+  </si>
+  <si>
+    <t>and the lock has an intrinsic condition</t>
+  </si>
+  <si>
+    <t>it's legal to declare static method as synchronized,</t>
+  </si>
+  <si>
+    <t>then a thread hold the lock of a class object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no other thread can call any other synchronized static method of the same class</t>
+  </si>
+  <si>
+    <t>使用顺序: build-in from java.util.concurrent &gt; synchronized &gt; Lock / condition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> block</t>
+    </r>
+  </si>
+  <si>
+    <t>make multithreading safe without thinking about explicit locks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Concept</t>
+    </r>
+  </si>
+  <si>
+    <t>a monitor is a class with only private fields</t>
+  </si>
+  <si>
+    <t>each obj of that class has an associated lock</t>
+  </si>
+  <si>
+    <t>*All methods are locked by that lock.</t>
+  </si>
+  <si>
+    <t>The lock can have any num of associated conditions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>volatile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+  </si>
+  <si>
+    <t>the compiler and the virtual machine take into account the the field may be concurrently updated by multithreads</t>
+  </si>
+  <si>
+    <t>but no atomicity</t>
+  </si>
+  <si>
+    <t>final Variables</t>
+  </si>
+  <si>
+    <t>Atomics</t>
   </si>
 </sst>
 </file>
@@ -7746,6 +7857,249 @@
               </a:solidFill>
             </a:rPr>
             <a:t>myLock.unlock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2455480" cy="2159053"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877C0B66-E075-ED4D-9675-9ADAE94C08A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="16851312"/>
+          <a:ext cx="2455480" cy="2159053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>public </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>synchronized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> void method()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>        method body</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>same as:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public void method() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>        this.intrinsicLock.lock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        try {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>                method body</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        finally </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>{  this.intrisicLock.unlock();  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>785812</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1317540" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AB9208-DAA4-844F-B046-05F0E340B92D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3365500" y="19875500"/>
+          <a:ext cx="1317540" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>// syntax</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>synchronized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (obj) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>        critical section</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9587,10 +9941,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E9D92-3EEB-F441-BF9E-67E50DBFC7C5}">
-  <dimension ref="A3:D97"/>
+  <dimension ref="A3:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9881,9 +10235,92 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="3:4">
       <c r="D97" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="D98" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="D100" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="D101" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="D102" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="D104" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="D111" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="D112" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="D113" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="D114" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="D115" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117" t="s">
+        <v>333</v>
+      </c>
+      <c r="D117" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="D118" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B0BCB-58B2-B840-8BD6-C92F609C5937}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990C5DF-8ACD-8147-A507-EBEA7A061310}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="24280" windowHeight="15540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="20580" windowHeight="15540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="341">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1849,6 +1849,32 @@
   </si>
   <si>
     <t>Atomics</t>
+  </si>
+  <si>
+    <t>you can declare shared variables as volatile provided you perform no operations other than assignment.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>java.util.concurrent.atomic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> package to guarantee without using locks</t>
+    </r>
+  </si>
+  <si>
+    <t>Read/Write Locks</t>
   </si>
 </sst>
 </file>
@@ -9941,9 +9967,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E9D92-3EEB-F441-BF9E-67E50DBFC7C5}">
-  <dimension ref="A3:D122"/>
+  <dimension ref="A3:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B113" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
@@ -10313,14 +10339,29 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
-      <c r="C120" t="s">
+    <row r="119" spans="3:4">
+      <c r="D119" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
-      <c r="C122" t="s">
+    <row r="123" spans="3:4">
+      <c r="C123" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="D124" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990C5DF-8ACD-8147-A507-EBEA7A061310}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7222E500-36EA-4245-AD4E-D8CE4C447F02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="460" windowWidth="20580" windowHeight="15540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="20580" windowHeight="15540" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="348">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1875,6 +1875,27 @@
   </si>
   <si>
     <t>Read/Write Locks</t>
+  </si>
+  <si>
+    <t>Blocking Queues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue</t>
+  </si>
+  <si>
+    <t>ArrayBlockingQueue</t>
+  </si>
+  <si>
+    <t>PriorityBlockingQueue</t>
+  </si>
+  <si>
+    <t>DelayQueue</t>
+  </si>
+  <si>
+    <t>LinkedTransferQueue</t>
   </si>
 </sst>
 </file>
@@ -8126,6 +8147,186 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
             <a:t>        critical section</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>785813</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4423134" cy="2847959"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5B7147-71CE-3149-87CA-9BA35E5C3B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3365501" y="23788688"/>
+          <a:ext cx="4423134" cy="2847959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>private  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ReentrantReadWriteLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> rwl  =  new  ReentrantReadWriteLock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>private  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  readLock  =  rwl.readLock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>private  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  writeLock  =  rwl.writeLock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public double getTotalBalance() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        readLock.lock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        try {  ...   }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        finally {  readLock.unlock();  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>public void transfer( ... ) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        writeLock.lock();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        try {  ...  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>        finally {  writeLock.unlock();  }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9967,10 +10168,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E9D92-3EEB-F441-BF9E-67E50DBFC7C5}">
-  <dimension ref="A3:D127"/>
+  <dimension ref="A3:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B113" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="B128" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10364,6 +10565,39 @@
         <v>340</v>
       </c>
     </row>
+    <row r="141" spans="3:5">
+      <c r="C141" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5">
+      <c r="D142" t="s">
+        <v>343</v>
+      </c>
+      <c r="E142" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5">
+      <c r="D143" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5">
+      <c r="D144" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7222E500-36EA-4245-AD4E-D8CE4C447F02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F68BF-ACFB-894A-9505-17C9C3E790E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="460" windowWidth="20580" windowHeight="15540" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="354">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1896,6 +1896,24 @@
   </si>
   <si>
     <t>LinkedTransferQueue</t>
+  </si>
+  <si>
+    <t>Thread-Safe Collections</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>ConcurrentSkipListMap</t>
+  </si>
+  <si>
+    <t>ConcurrentSkipListSet</t>
+  </si>
+  <si>
+    <t>ConcurrentLinkedQueue</t>
+  </si>
+  <si>
+    <t>Callable and Futures</t>
   </si>
 </sst>
 </file>
@@ -10168,10 +10186,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E9D92-3EEB-F441-BF9E-67E50DBFC7C5}">
-  <dimension ref="A3:E146"/>
+  <dimension ref="A3:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="B138" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10588,14 +10606,44 @@
         <v>345</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
+    <row r="145" spans="3:4">
       <c r="D145" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="146" spans="4:4">
+    <row r="146" spans="3:4">
       <c r="D146" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4">
+      <c r="C149" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="D150" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4">
+      <c r="D151" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="D152" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="D153" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="C156" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F68BF-ACFB-894A-9505-17C9C3E790E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A6C44B-848B-D443-91C5-DC3783B21903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="460" windowWidth="20580" windowHeight="15540" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Concurrency2" sheetId="6" r:id="rId6"/>
     <sheet name="Concurrency" sheetId="7" r:id="rId7"/>
     <sheet name="Co" sheetId="8" r:id="rId8"/>
+    <sheet name="Stream" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="523">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -1914,6 +1915,696 @@
   </si>
   <si>
     <t>Callable and Futures</t>
+  </si>
+  <si>
+    <t>Turn into any collection in a stream:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stream() </t>
+  </si>
+  <si>
+    <t>Stream Creation</t>
+  </si>
+  <si>
+    <t>Create a stream</t>
+  </si>
+  <si>
+    <t>Intermediate operations, transforming the initial stream into others</t>
+  </si>
+  <si>
+    <t>Terminal operation, produce a result</t>
+  </si>
+  <si>
+    <t>Stream.of(array);</t>
+  </si>
+  <si>
+    <t>From an array to a stream</t>
+  </si>
+  <si>
+    <t>multiple arguments</t>
+  </si>
+  <si>
+    <t>Stream.of("gently", "down", "the", "stream");</t>
+  </si>
+  <si>
+    <t>A stream with on elements</t>
+  </si>
+  <si>
+    <t>Stream.empty()</t>
+  </si>
+  <si>
+    <t>Infinite Streams</t>
+  </si>
+  <si>
+    <t>Stream.generate(() -&gt; "Echo");</t>
+  </si>
+  <si>
+    <t>Stream.generate(Math::random);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Supplier&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface</t>
+    </r>
+  </si>
+  <si>
+    <t>Stream.iterate(BigInteger.ZERO, n -&gt; n.add(BigInteger.ONE));</t>
+  </si>
+  <si>
+    <t>seed, UnaryOperator&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Other API yields Streams</t>
+  </si>
+  <si>
+    <t>Pattern.compile("\\PL+").splitAsStream(contents);</t>
+  </si>
+  <si>
+    <t>Files.lines(path);</t>
+  </si>
+  <si>
+    <t>returns a stream of all lines in a file</t>
+  </si>
+  <si>
+    <t>Intermediate opertions</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>wordStream.filter(w -&gt; w.length() &gt; 12)</t>
+  </si>
+  <si>
+    <t>wordStream.map(map::toLowerCase)</t>
+  </si>
+  <si>
+    <t>transform the values in some way</t>
+  </si>
+  <si>
+    <t>from T to boolean</t>
+  </si>
+  <si>
+    <t>flatMap</t>
+  </si>
+  <si>
+    <t>from a stream of a streams to flatten it out to a stream</t>
+  </si>
+  <si>
+    <t>wordStream.flatMap(map::toLowerCase)</t>
+  </si>
+  <si>
+    <t>the theory of monads</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>wordStream.limit(n)</t>
+  </si>
+  <si>
+    <t>limit the size to n of a stream</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>wordStream.skip(n)</t>
+  </si>
+  <si>
+    <t>discard the first n elements</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>Stream.concat(Stream1, Stream2)</t>
+  </si>
+  <si>
+    <t>concat two streams</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>wordStream.distinct()</t>
+  </si>
+  <si>
+    <t>yields elements from the original stream in same order,</t>
+  </si>
+  <si>
+    <t>but the duplicates are suppressed</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
+  <si>
+    <t>can workds for streams of comparable elements</t>
+  </si>
+  <si>
+    <t>or accepts a Comparator</t>
+  </si>
+  <si>
+    <t>wordStream.sorted(Comparator.comparing(String::length).reversed());</t>
+  </si>
+  <si>
+    <t>peek</t>
+  </si>
+  <si>
+    <t>same elements with the original stream</t>
+  </si>
+  <si>
+    <t>wordStream.peek(e -&gt; System.out.println(e))</t>
+  </si>
+  <si>
+    <t>but a function invoked every time, good for debug</t>
+  </si>
+  <si>
+    <t>Stream Transformation</t>
+  </si>
+  <si>
+    <t>Terminal operations</t>
+  </si>
+  <si>
+    <t>reductions, get a result</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>wordStream.count()</t>
+  </si>
+  <si>
+    <t>return the number of elements of a stream</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>return the max value</t>
+  </si>
+  <si>
+    <t>return the min value</t>
+  </si>
+  <si>
+    <t>Return Type</t>
+  </si>
+  <si>
+    <t>wordStream.max(String::compareToIgnoreCase)</t>
+  </si>
+  <si>
+    <t>findFirst</t>
+  </si>
+  <si>
+    <t>wordStream.findFirst()</t>
+  </si>
+  <si>
+    <t>return the first value in a nonempty collection</t>
+  </si>
+  <si>
+    <t>findAny</t>
+  </si>
+  <si>
+    <t>anyMatch</t>
+  </si>
+  <si>
+    <t>allMatch</t>
+  </si>
+  <si>
+    <t>noneMatch</t>
+  </si>
+  <si>
+    <t>Optional&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Optional &lt;T&gt; Type</t>
+  </si>
+  <si>
+    <t>A wrapper for either T or no object</t>
+  </si>
+  <si>
+    <t>String result = optionalString.orElse("");</t>
+  </si>
+  <si>
+    <t>orElse(T other)</t>
+  </si>
+  <si>
+    <t>orElseGet</t>
+  </si>
+  <si>
+    <t>Strring result = optionalString.orElseGet(() -&gt; Locale.getDefault().getDisplayName());</t>
+  </si>
+  <si>
+    <t>// the function is only called when needed</t>
+  </si>
+  <si>
+    <t>orElseThrow</t>
+  </si>
+  <si>
+    <t>注意不要被滥用</t>
+  </si>
+  <si>
+    <t>String result = optionalString.orElseThrow(IllgealStateExcetpion::new);</t>
+  </si>
+  <si>
+    <t>// supply a method that yields an exception object</t>
+  </si>
+  <si>
+    <t>ifPresent</t>
+  </si>
+  <si>
+    <r>
+      <t>optionalValue.ifPresent(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v -&gt; Process v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>// if the optional value exists, it is passed to that function</t>
+  </si>
+  <si>
+    <t>// otherwise, nothing happened</t>
+  </si>
+  <si>
+    <t>// to process the function result</t>
+  </si>
+  <si>
+    <t>Optional&lt;Boolean&gt; added = optionalValue.map(results:add);</t>
+  </si>
+  <si>
+    <t>yields the value of optional, otherwise NoSuchElementException</t>
+  </si>
+  <si>
+    <t>isPresent()</t>
+  </si>
+  <si>
+    <t>true if this optional is not empty</t>
+  </si>
+  <si>
+    <t>Create Optional</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>ofNullable</t>
+  </si>
+  <si>
+    <t>Collecting Results</t>
+  </si>
+  <si>
+    <t>forEach</t>
+  </si>
+  <si>
+    <t>sream.forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>forEachOrdered</t>
+  </si>
+  <si>
+    <t>parallelStream.forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>parallelStream.forEachOrdered(System.out::println);</t>
+  </si>
+  <si>
+    <t>toArray</t>
+  </si>
+  <si>
+    <t>String[] result = stream.toArray(String[]::new);</t>
+  </si>
+  <si>
+    <t>// toArray() has type Object[]</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>takes an instance of Collector interface</t>
+  </si>
+  <si>
+    <t>// specify what set you get</t>
+  </si>
+  <si>
+    <t>TreeSet&lt;String&gt; result = stream.collect(Collectors.toCollection(TreeSet:new));</t>
+  </si>
+  <si>
+    <t>// collect all strings in a stream</t>
+  </si>
+  <si>
+    <t>String result = sream.collect(Collectors.joining())</t>
+  </si>
+  <si>
+    <t>String result = sream.collect(Collectors.joining(", "))</t>
+  </si>
+  <si>
+    <t>IntSummaryStatistics  summary = stream.collect(Collectors.summarizingInt(String::length));</t>
+  </si>
+  <si>
+    <t>double averageWordLength = summary.getAverage();</t>
+  </si>
+  <si>
+    <t>double maxWordLength = summary.getMax();</t>
+  </si>
+  <si>
+    <t>把stream变成collections</t>
+  </si>
+  <si>
+    <r>
+      <t>Set&lt;String&gt; result = stream.collect(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Collectors.toSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>List&lt;String&gt; result = stream.collect(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Collectors.toList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <t>Collectors.toMap()</t>
+  </si>
+  <si>
+    <t>// 这个要重点讲</t>
+  </si>
+  <si>
+    <t>argu1</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>argu2</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>argu3</t>
+  </si>
+  <si>
+    <t>function argument that resolves the conflict and determines the value for the key</t>
+  </si>
+  <si>
+    <t>given the existing value and the new value</t>
+  </si>
+  <si>
+    <t>argu4</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>default: throw IllegalStateException</t>
+  </si>
+  <si>
+    <t>Supply the constructor as the fourth argument</t>
+  </si>
+  <si>
+    <t>Collectors.partitioningBy</t>
+  </si>
+  <si>
+    <t>Collectors.groupingBy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Map&lt;K, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>List&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Map&lt;Boolean, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>List&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>DownStream Collectors : to process those lists</t>
+  </si>
+  <si>
+    <t>Collectors.toSet()</t>
+  </si>
+  <si>
+    <t>Collectors.counting()</t>
+  </si>
+  <si>
+    <t>summing(Int | Long | Double)</t>
+  </si>
+  <si>
+    <t>maxBy</t>
+  </si>
+  <si>
+    <t>minBy</t>
+  </si>
+  <si>
+    <t>takes a comparator</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>* operation should be associative</t>
+  </si>
+  <si>
+    <t>Primitive Type Streams</t>
+  </si>
+  <si>
+    <t>IntStream</t>
+  </si>
+  <si>
+    <t>int, short, char, byte. Boolean</t>
+  </si>
+  <si>
+    <t>DoubleStream</t>
+  </si>
+  <si>
+    <t>float, double</t>
+  </si>
+  <si>
+    <t>LongStream</t>
+  </si>
+  <si>
+    <t>common methods</t>
+  </si>
+  <si>
+    <t>Stream&lt;String&gt; words = …;</t>
+  </si>
+  <si>
+    <t>mapToInt</t>
+  </si>
+  <si>
+    <t>mapToLong</t>
+  </si>
+  <si>
+    <t>mapToDouble</t>
+  </si>
+  <si>
+    <r>
+      <t>Stream&lt;Integer&gt; integers = IntStream.range(0, 100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.boxed()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IntStream lengths = words.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>mapToInt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(String::length)</t>
+    </r>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>OptionalLong</t>
+  </si>
+  <si>
+    <t>OptionalDouble</t>
+  </si>
+  <si>
+    <t>OptionalInt</t>
+  </si>
+  <si>
+    <t>summaryStatistics</t>
+  </si>
+  <si>
+    <r>
+      <t>* Random class has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ints, longs, doubles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to return primitive type streams</t>
+    </r>
+  </si>
+  <si>
+    <t>parallelStream</t>
+  </si>
+  <si>
+    <t>Collection.parallelStream()</t>
+  </si>
+  <si>
+    <t>Stream.of(Array).parallel()</t>
+  </si>
+  <si>
+    <t>finite Stream for LongStream | IntStream : range | rangeClosed</t>
   </si>
 </sst>
 </file>
@@ -1968,12 +2659,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1988,7 +2685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2002,6 +2699,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9962,7 +10667,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9981,7 +10686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19BCAD-ED38-5145-BC98-32811AE5FD8E}">
   <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -10188,7 +10893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E9D92-3EEB-F441-BF9E-67E50DBFC7C5}">
   <dimension ref="A3:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B138" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B138" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
@@ -10650,4 +11355,808 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270AE835-A8C0-7C44-86EB-1687F5792B13}">
+  <dimension ref="A1:H143"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" t="s">
+        <v>367</v>
+      </c>
+      <c r="H12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="E18" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="D28" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" t="s">
+        <v>388</v>
+      </c>
+      <c r="G30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="C33" t="s">
+        <v>393</v>
+      </c>
+      <c r="D33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" t="s">
+        <v>397</v>
+      </c>
+      <c r="G35" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="G36" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="C38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="G39" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="G40" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="G43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="G44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>412</v>
+      </c>
+      <c r="H47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" t="s">
+        <v>414</v>
+      </c>
+      <c r="D48" t="s">
+        <v>427</v>
+      </c>
+      <c r="E48" t="s">
+        <v>419</v>
+      </c>
+      <c r="H48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" t="s">
+        <v>427</v>
+      </c>
+      <c r="H49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="C50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" t="s">
+        <v>427</v>
+      </c>
+      <c r="E50" t="s">
+        <v>421</v>
+      </c>
+      <c r="H50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="C53" t="s">
+        <v>424</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" t="s">
+        <v>425</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="C55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D57" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" t="s">
+        <v>453</v>
+      </c>
+      <c r="E62" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="E63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="C64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="E65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" t="s">
+        <v>458</v>
+      </c>
+      <c r="E66" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E68" t="s">
+        <v>473</v>
+      </c>
+      <c r="H68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" t="s">
+        <v>471</v>
+      </c>
+      <c r="E69" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="E70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="E71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="E72" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="E73" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="E74" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="E76" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="E77" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="E78" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="E79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="E80" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="F81" t="s">
+        <v>476</v>
+      </c>
+      <c r="G81" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="F82" t="s">
+        <v>478</v>
+      </c>
+      <c r="G82" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F83" t="s">
+        <v>480</v>
+      </c>
+      <c r="G83" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="G84" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="G85" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="E86" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F86" t="s">
+        <v>483</v>
+      </c>
+      <c r="G86" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="E88" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F88" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="E90" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F90" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93" s="12"/>
+      <c r="F93" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" s="12"/>
+      <c r="F94" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="E95" s="12"/>
+      <c r="F95" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7">
+      <c r="E96" s="12"/>
+      <c r="F96" t="s">
+        <v>495</v>
+      </c>
+      <c r="G96" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="E97" s="12"/>
+      <c r="F97" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>428</v>
+      </c>
+      <c r="C101" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="C103" t="s">
+        <v>431</v>
+      </c>
+      <c r="D103" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="E104" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105" t="s">
+        <v>432</v>
+      </c>
+      <c r="D105" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="E106" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="C107" t="s">
+        <v>435</v>
+      </c>
+      <c r="D107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="E109" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="E110" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="C111" t="s">
+        <v>439</v>
+      </c>
+      <c r="D111" t="s">
+        <v>141</v>
+      </c>
+      <c r="E111" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="E112" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="C113" t="s">
+        <v>378</v>
+      </c>
+      <c r="E113" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="C115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="C116" t="s">
+        <v>446</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="B118" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="C119" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="C120" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="C121" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="C123" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>500</v>
+      </c>
+      <c r="G125" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="C126" t="s">
+        <v>501</v>
+      </c>
+      <c r="D126" t="s">
+        <v>502</v>
+      </c>
+      <c r="F126" t="s">
+        <v>508</v>
+      </c>
+      <c r="G126" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="C127" t="s">
+        <v>505</v>
+      </c>
+      <c r="F127" t="s">
+        <v>509</v>
+      </c>
+      <c r="G127" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="C128" t="s">
+        <v>503</v>
+      </c>
+      <c r="D128" t="s">
+        <v>504</v>
+      </c>
+      <c r="F128" t="s">
+        <v>510</v>
+      </c>
+      <c r="G128" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="C130" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="D131" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="D132" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="D134" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="C136" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="D138" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="C139" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="C142" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="C143" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Language_Fundamentals.xlsx
+++ b/Language_Fundamentals.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A6C44B-848B-D443-91C5-DC3783B21903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102E536-BE06-F943-85A1-818C0F6AB6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="24580" windowHeight="15540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言基础" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="528">
   <si>
     <t>Primitive Types:</t>
   </si>
@@ -2605,6 +2605,21 @@
   </si>
   <si>
     <t>finite Stream for LongStream | IntStream : range | rangeClosed</t>
+  </si>
+  <si>
+    <t>Write Text Out</t>
+  </si>
+  <si>
+    <t>PrintWriter</t>
+  </si>
+  <si>
+    <t>Read Text Input</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>from any input Stream</t>
   </si>
 </sst>
 </file>
@@ -7555,6 +7570,213 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3743782" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551BC23F-018B-4644-A034-75EF85892720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1469571"/>
+          <a:ext cx="3743782" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> content = new String(Flies.ReadAllBytes(path), charset);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>789214</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3149388" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF982F42-E00D-C44C-B1C7-0D0C8C7DBA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="789214" y="1850571"/>
+          <a:ext cx="3149388" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>List&lt;String&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> lines = Files.readAllLines(path, charset);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>780143</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3248774" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E032F4F5-3B85-CC41-A773-7A08A4AB50F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="780143" y="2249715"/>
+          <a:ext cx="3248774" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>try (Stream&lt;String&gt; lines = Files.lines(path,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> charset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	......</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>607786</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -7766,7 +7988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -8069,7 +8291,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -10664,21 +10886,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2908512-AA1C-514C-8D54-E05B0FF39250}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>227</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10686,7 +10932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E19BCAD-ED38-5145-BC98-32811AE5FD8E}">
   <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
